--- a/natmiOut/OldD2/LR-pairs_lrc2p/Efna5-Epha4.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Efna5-Epha4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>Neutro</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -91,7 +94,7 @@
     <t>Epha4</t>
   </si>
   <si>
-    <t>Neutro</t>
+    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -449,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.38296677097106</v>
+        <v>0.386502</v>
       </c>
       <c r="H2">
-        <v>0.38296677097106</v>
+        <v>0.773004</v>
       </c>
       <c r="I2">
-        <v>0.2310940032498789</v>
+        <v>0.2023774294220003</v>
       </c>
       <c r="J2">
-        <v>0.2310940032498789</v>
+        <v>0.1704859662986497</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>10.3792757903497</v>
+        <v>10.4223555</v>
       </c>
       <c r="N2">
-        <v>10.3792757903497</v>
+        <v>20.844711</v>
       </c>
       <c r="O2">
-        <v>0.5267070808686305</v>
+        <v>0.5134583541362047</v>
       </c>
       <c r="P2">
-        <v>0.5267070808686305</v>
+        <v>0.4269921487868164</v>
       </c>
       <c r="Q2">
-        <v>3.974917734448322</v>
+        <v>4.028261245461</v>
       </c>
       <c r="R2">
-        <v>3.974917734448322</v>
+        <v>16.113044981844</v>
       </c>
       <c r="S2">
-        <v>0.1217188478579895</v>
+        <v>0.1039123818253362</v>
       </c>
       <c r="T2">
-        <v>0.1217188478579895</v>
+        <v>0.07279616908785719</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.38296677097106</v>
+        <v>0.386502</v>
       </c>
       <c r="H3">
-        <v>0.38296677097106</v>
+        <v>0.773004</v>
       </c>
       <c r="I3">
-        <v>0.2310940032498789</v>
+        <v>0.2023774294220003</v>
       </c>
       <c r="J3">
-        <v>0.2310940032498789</v>
+        <v>0.1704859662986497</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.83240741284493</v>
+        <v>2.082668</v>
       </c>
       <c r="N3">
-        <v>1.83240741284493</v>
+        <v>6.248004</v>
       </c>
       <c r="O3">
-        <v>0.09298740864742691</v>
+        <v>0.1026028409309336</v>
       </c>
       <c r="P3">
-        <v>0.09298740864742691</v>
+        <v>0.1279868381762944</v>
       </c>
       <c r="Q3">
-        <v>0.7017511500006569</v>
+        <v>0.804955347336</v>
       </c>
       <c r="R3">
-        <v>0.7017511500006569</v>
+        <v>4.829732084016</v>
       </c>
       <c r="S3">
-        <v>0.0214888325161663</v>
+        <v>0.02076449919899674</v>
       </c>
       <c r="T3">
-        <v>0.0214888325161663</v>
+        <v>0.02181995977999446</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.38296677097106</v>
+        <v>0.386502</v>
       </c>
       <c r="H4">
-        <v>0.38296677097106</v>
+        <v>0.773004</v>
       </c>
       <c r="I4">
-        <v>0.2310940032498789</v>
+        <v>0.2023774294220003</v>
       </c>
       <c r="J4">
-        <v>0.2310940032498789</v>
+        <v>0.1704859662986497</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>5.8392634676081</v>
+        <v>0.026642</v>
       </c>
       <c r="N4">
-        <v>5.8392634676081</v>
+        <v>0.079926</v>
       </c>
       <c r="O4">
-        <v>0.296319461739929</v>
+        <v>0.001312520712894198</v>
       </c>
       <c r="P4">
-        <v>0.296319461739929</v>
+        <v>0.001637239033150188</v>
       </c>
       <c r="Q4">
-        <v>2.236243875039149</v>
+        <v>0.010297186284</v>
       </c>
       <c r="R4">
-        <v>2.236243875039149</v>
+        <v>0.061783117704</v>
       </c>
       <c r="S4">
-        <v>0.06847765065432952</v>
+        <v>0.0002656245679386591</v>
       </c>
       <c r="T4">
-        <v>0.06847765065432952</v>
+        <v>0.0002791262786284768</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,123 +711,123 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
         <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.38296677097106</v>
+        <v>0.386502</v>
       </c>
       <c r="H5">
-        <v>0.38296677097106</v>
+        <v>0.773004</v>
       </c>
       <c r="I5">
-        <v>0.2310940032498789</v>
+        <v>0.2023774294220003</v>
       </c>
       <c r="J5">
-        <v>0.2310940032498789</v>
+        <v>0.1704859662986497</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.65502685291085</v>
+        <v>6.111548333333334</v>
       </c>
       <c r="N5">
-        <v>1.65502685291085</v>
+        <v>18.334645</v>
       </c>
       <c r="O5">
-        <v>0.08398604874401359</v>
+        <v>0.3010860211453351</v>
       </c>
       <c r="P5">
-        <v>0.08398604874401359</v>
+        <v>0.3755748624096281</v>
       </c>
       <c r="Q5">
-        <v>0.6338202897296638</v>
+        <v>2.362125653930001</v>
       </c>
       <c r="R5">
-        <v>0.6338202897296638</v>
+        <v>14.17275392358</v>
       </c>
       <c r="S5">
-        <v>0.01940867222139357</v>
+        <v>0.06093301499429093</v>
       </c>
       <c r="T5">
-        <v>0.01940867222139357</v>
+        <v>0.06403024333538784</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.522573029932645</v>
+        <v>0.386502</v>
       </c>
       <c r="H6">
-        <v>0.522573029932645</v>
+        <v>0.773004</v>
       </c>
       <c r="I6">
-        <v>0.3153367410215326</v>
+        <v>0.2023774294220003</v>
       </c>
       <c r="J6">
-        <v>0.3153367410215326</v>
+        <v>0.1704859662986497</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>10.3792757903497</v>
+        <v>1.6551325</v>
       </c>
       <c r="N6">
-        <v>10.3792757903497</v>
+        <v>3.310265</v>
       </c>
       <c r="O6">
-        <v>0.5267070808686305</v>
+        <v>0.0815402630746324</v>
       </c>
       <c r="P6">
-        <v>0.5267070808686305</v>
+        <v>0.0678089115941109</v>
       </c>
       <c r="Q6">
-        <v>5.423929598269591</v>
+        <v>0.6397120215150001</v>
       </c>
       <c r="R6">
-        <v>5.423929598269591</v>
+        <v>2.55884808606</v>
       </c>
       <c r="S6">
-        <v>0.1660900943540788</v>
+        <v>0.01650190883543776</v>
       </c>
       <c r="T6">
-        <v>0.1660900943540788</v>
+        <v>0.01156046781678171</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.522573029932645</v>
+        <v>0.6931216666666667</v>
       </c>
       <c r="H7">
-        <v>0.522573029932645</v>
+        <v>2.079365</v>
       </c>
       <c r="I7">
-        <v>0.3153367410215326</v>
+        <v>0.3629274393837356</v>
       </c>
       <c r="J7">
-        <v>0.3153367410215326</v>
+        <v>0.4586037734767113</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.83240741284493</v>
+        <v>10.4223555</v>
       </c>
       <c r="N7">
-        <v>1.83240741284493</v>
+        <v>20.844711</v>
       </c>
       <c r="O7">
-        <v>0.09298740864742691</v>
+        <v>0.5134583541362047</v>
       </c>
       <c r="P7">
-        <v>0.09298740864742691</v>
+        <v>0.4269921487868164</v>
       </c>
       <c r="Q7">
-        <v>0.9575666938014141</v>
+        <v>7.2239604147525</v>
       </c>
       <c r="R7">
-        <v>0.9575666938014141</v>
+        <v>43.343762488515</v>
       </c>
       <c r="S7">
-        <v>0.02932234639891709</v>
+        <v>0.18634812569684</v>
       </c>
       <c r="T7">
-        <v>0.02932234639891709</v>
+        <v>0.1958202106785633</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.522573029932645</v>
+        <v>0.6931216666666667</v>
       </c>
       <c r="H8">
-        <v>0.522573029932645</v>
+        <v>2.079365</v>
       </c>
       <c r="I8">
-        <v>0.3153367410215326</v>
+        <v>0.3629274393837356</v>
       </c>
       <c r="J8">
-        <v>0.3153367410215326</v>
+        <v>0.4586037734767113</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>5.8392634676081</v>
+        <v>2.082668</v>
       </c>
       <c r="N8">
-        <v>5.8392634676081</v>
+        <v>6.248004</v>
       </c>
       <c r="O8">
-        <v>0.296319461739929</v>
+        <v>0.1026028409309336</v>
       </c>
       <c r="P8">
-        <v>0.296319461739929</v>
+        <v>0.1279868381762944</v>
       </c>
       <c r="Q8">
-        <v>3.051441602842968</v>
+        <v>1.443542315273334</v>
       </c>
       <c r="R8">
-        <v>3.051441602842968</v>
+        <v>12.99188083746</v>
       </c>
       <c r="S8">
-        <v>0.09344041336632393</v>
+        <v>0.03723738633256048</v>
       </c>
       <c r="T8">
-        <v>0.09344041336632393</v>
+        <v>0.05869524694300184</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,185 +959,185 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.522573029932645</v>
+        <v>0.6931216666666667</v>
       </c>
       <c r="H9">
-        <v>0.522573029932645</v>
+        <v>2.079365</v>
       </c>
       <c r="I9">
-        <v>0.3153367410215326</v>
+        <v>0.3629274393837356</v>
       </c>
       <c r="J9">
-        <v>0.3153367410215326</v>
+        <v>0.4586037734767113</v>
       </c>
       <c r="K9">
         <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>1.65502685291085</v>
+        <v>0.026642</v>
       </c>
       <c r="N9">
-        <v>1.65502685291085</v>
+        <v>0.079926</v>
       </c>
       <c r="O9">
-        <v>0.08398604874401359</v>
+        <v>0.001312520712894198</v>
       </c>
       <c r="P9">
-        <v>0.08398604874401359</v>
+        <v>0.001637239033150188</v>
       </c>
       <c r="Q9">
-        <v>0.8648723971455129</v>
+        <v>0.01846614744333333</v>
       </c>
       <c r="R9">
-        <v>0.8648723971455129</v>
+        <v>0.16619532699</v>
       </c>
       <c r="S9">
-        <v>0.02648388690221283</v>
+        <v>0.0004763497814688064</v>
       </c>
       <c r="T9">
-        <v>0.02648388690221283</v>
+        <v>0.0007508439986860388</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
         <v>22</v>
       </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.7516506306323441</v>
+        <v>0.6931216666666667</v>
       </c>
       <c r="H10">
-        <v>0.7516506306323441</v>
+        <v>2.079365</v>
       </c>
       <c r="I10">
-        <v>0.4535692557285884</v>
+        <v>0.3629274393837356</v>
       </c>
       <c r="J10">
-        <v>0.4535692557285884</v>
+        <v>0.4586037734767113</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>10.3792757903497</v>
+        <v>6.111548333333334</v>
       </c>
       <c r="N10">
-        <v>10.3792757903497</v>
+        <v>18.334645</v>
       </c>
       <c r="O10">
-        <v>0.5267070808686305</v>
+        <v>0.3010860211453351</v>
       </c>
       <c r="P10">
-        <v>0.5267070808686305</v>
+        <v>0.3755748624096281</v>
       </c>
       <c r="Q10">
-        <v>7.801589193323373</v>
+        <v>4.23604656671389</v>
       </c>
       <c r="R10">
-        <v>7.801589193323373</v>
+        <v>38.12441910042501</v>
       </c>
       <c r="S10">
-        <v>0.2388981386565622</v>
+        <v>0.1092723786885137</v>
       </c>
       <c r="T10">
-        <v>0.2388981386565622</v>
+        <v>0.1722400491240521</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
         <v>23</v>
       </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>21</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.7516506306323441</v>
+        <v>0.6931216666666667</v>
       </c>
       <c r="H11">
-        <v>0.7516506306323441</v>
+        <v>2.079365</v>
       </c>
       <c r="I11">
-        <v>0.4535692557285884</v>
+        <v>0.3629274393837356</v>
       </c>
       <c r="J11">
-        <v>0.4535692557285884</v>
+        <v>0.4586037734767113</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.83240741284493</v>
+        <v>1.6551325</v>
       </c>
       <c r="N11">
-        <v>1.83240741284493</v>
+        <v>3.310265</v>
       </c>
       <c r="O11">
-        <v>0.09298740864742691</v>
+        <v>0.0815402630746324</v>
       </c>
       <c r="P11">
-        <v>0.09298740864742691</v>
+        <v>0.0678089115941109</v>
       </c>
       <c r="Q11">
-        <v>1.377330187440274</v>
+        <v>1.147208196954167</v>
       </c>
       <c r="R11">
-        <v>1.377330187440274</v>
+        <v>6.883249181725001</v>
       </c>
       <c r="S11">
-        <v>0.04217622973234353</v>
+        <v>0.0295931988843525</v>
       </c>
       <c r="T11">
-        <v>0.04217622973234353</v>
+        <v>0.03109742273240798</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,61 +1145,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E12">
         <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.7516506306323441</v>
+        <v>0.02138366666666667</v>
       </c>
       <c r="H12">
-        <v>0.7516506306323441</v>
+        <v>0.064151</v>
       </c>
       <c r="I12">
-        <v>0.4535692557285884</v>
+        <v>0.011196763513816</v>
       </c>
       <c r="J12">
-        <v>0.4535692557285884</v>
+        <v>0.01414849758089826</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>5.8392634676081</v>
+        <v>10.4223555</v>
       </c>
       <c r="N12">
-        <v>5.8392634676081</v>
+        <v>20.844711</v>
       </c>
       <c r="O12">
-        <v>0.296319461739929</v>
+        <v>0.5134583541362047</v>
       </c>
       <c r="P12">
-        <v>0.296319461739929</v>
+        <v>0.4269921487868164</v>
       </c>
       <c r="Q12">
-        <v>4.389086067856036</v>
+        <v>0.2228681758934999</v>
       </c>
       <c r="R12">
-        <v>4.389086067856036</v>
+        <v>1.337209055361</v>
       </c>
       <c r="S12">
-        <v>0.1344013977192755</v>
+        <v>0.005749071765456273</v>
       </c>
       <c r="T12">
-        <v>0.1344013977192755</v>
+        <v>0.00604129738417282</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,61 +1207,557 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.02138366666666667</v>
+      </c>
+      <c r="H13">
+        <v>0.064151</v>
+      </c>
+      <c r="I13">
+        <v>0.011196763513816</v>
+      </c>
+      <c r="J13">
+        <v>0.01414849758089826</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>2.082668</v>
+      </c>
+      <c r="N13">
+        <v>6.248004</v>
+      </c>
+      <c r="O13">
+        <v>0.1026028409309336</v>
+      </c>
+      <c r="P13">
+        <v>0.1279868381762944</v>
+      </c>
+      <c r="Q13">
+        <v>0.04453507828933333</v>
+      </c>
+      <c r="R13">
+        <v>0.400815704604</v>
+      </c>
+      <c r="S13">
+        <v>0.001148819745749345</v>
+      </c>
+      <c r="T13">
+        <v>0.001810821470324118</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.02138366666666667</v>
+      </c>
+      <c r="H14">
+        <v>0.064151</v>
+      </c>
+      <c r="I14">
+        <v>0.011196763513816</v>
+      </c>
+      <c r="J14">
+        <v>0.01414849758089826</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M14">
+        <v>0.026642</v>
+      </c>
+      <c r="N14">
+        <v>0.079926</v>
+      </c>
+      <c r="O14">
+        <v>0.001312520712894198</v>
+      </c>
+      <c r="P14">
+        <v>0.001637239033150188</v>
+      </c>
+      <c r="Q14">
+        <v>0.0005697036473333333</v>
+      </c>
+      <c r="R14">
+        <v>0.005127332825999999</v>
+      </c>
+      <c r="S14">
+        <v>1.469598402926153E-05</v>
+      </c>
+      <c r="T14">
+        <v>2.316447249987764E-05</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.02138366666666667</v>
+      </c>
+      <c r="H15">
+        <v>0.064151</v>
+      </c>
+      <c r="I15">
+        <v>0.011196763513816</v>
+      </c>
+      <c r="J15">
+        <v>0.01414849758089826</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>6.111548333333334</v>
+      </c>
+      <c r="N15">
+        <v>18.334645</v>
+      </c>
+      <c r="O15">
+        <v>0.3010860211453351</v>
+      </c>
+      <c r="P15">
+        <v>0.3755748624096281</v>
+      </c>
+      <c r="Q15">
+        <v>0.1306873123772222</v>
+      </c>
+      <c r="R15">
+        <v>1.176185811395</v>
+      </c>
+      <c r="S15">
+        <v>0.003371188976080121</v>
+      </c>
+      <c r="T15">
+        <v>0.005313820032248819</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.02138366666666667</v>
+      </c>
+      <c r="H16">
+        <v>0.064151</v>
+      </c>
+      <c r="I16">
+        <v>0.011196763513816</v>
+      </c>
+      <c r="J16">
+        <v>0.01414849758089826</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>1.6551325</v>
+      </c>
+      <c r="N16">
+        <v>3.310265</v>
+      </c>
+      <c r="O16">
+        <v>0.0815402630746324</v>
+      </c>
+      <c r="P16">
+        <v>0.0678089115941109</v>
+      </c>
+      <c r="Q16">
+        <v>0.03539280166916667</v>
+      </c>
+      <c r="R16">
+        <v>0.212356810015</v>
+      </c>
+      <c r="S16">
+        <v>0.0009129870425010024</v>
+      </c>
+      <c r="T16">
+        <v>0.0009593942216526218</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.8088005</v>
+      </c>
+      <c r="H17">
+        <v>1.617601</v>
+      </c>
+      <c r="I17">
+        <v>0.4234983676804481</v>
+      </c>
+      <c r="J17">
+        <v>0.3567617626437406</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>10.4223555</v>
+      </c>
+      <c r="N17">
+        <v>20.844711</v>
+      </c>
+      <c r="O17">
+        <v>0.5134583541362047</v>
+      </c>
+      <c r="P17">
+        <v>0.4269921487868164</v>
+      </c>
+      <c r="Q17">
+        <v>8.429606339577749</v>
+      </c>
+      <c r="R17">
+        <v>33.71842535831099</v>
+      </c>
+      <c r="S17">
+        <v>0.2174487748485721</v>
+      </c>
+      <c r="T17">
+        <v>0.1523344716362229</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0.8088005</v>
+      </c>
+      <c r="H18">
+        <v>1.617601</v>
+      </c>
+      <c r="I18">
+        <v>0.4234983676804481</v>
+      </c>
+      <c r="J18">
+        <v>0.3567617626437406</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>2.082668</v>
+      </c>
+      <c r="N18">
+        <v>6.248004</v>
+      </c>
+      <c r="O18">
+        <v>0.1026028409309336</v>
+      </c>
+      <c r="P18">
+        <v>0.1279868381762944</v>
+      </c>
+      <c r="Q18">
+        <v>1.684462919734</v>
+      </c>
+      <c r="R18">
+        <v>10.106777518404</v>
+      </c>
+      <c r="S18">
+        <v>0.04345213565362706</v>
+      </c>
+      <c r="T18">
+        <v>0.04566080998297398</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0.8088005</v>
+      </c>
+      <c r="H19">
+        <v>1.617601</v>
+      </c>
+      <c r="I19">
+        <v>0.4234983676804481</v>
+      </c>
+      <c r="J19">
+        <v>0.3567617626437406</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M19">
+        <v>0.026642</v>
+      </c>
+      <c r="N19">
+        <v>0.079926</v>
+      </c>
+      <c r="O19">
+        <v>0.001312520712894198</v>
+      </c>
+      <c r="P19">
+        <v>0.001637239033150188</v>
+      </c>
+      <c r="Q19">
+        <v>0.021548062921</v>
+      </c>
+      <c r="R19">
+        <v>0.129288377526</v>
+      </c>
+      <c r="S19">
+        <v>0.000555850379457471</v>
+      </c>
+      <c r="T19">
+        <v>0.0005841042833357947</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
         <v>22</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>0.7516506306323441</v>
-      </c>
-      <c r="H13">
-        <v>0.7516506306323441</v>
-      </c>
-      <c r="I13">
-        <v>0.4535692557285884</v>
-      </c>
-      <c r="J13">
-        <v>0.4535692557285884</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>1.65502685291085</v>
-      </c>
-      <c r="N13">
-        <v>1.65502685291085</v>
-      </c>
-      <c r="O13">
-        <v>0.08398604874401359</v>
-      </c>
-      <c r="P13">
-        <v>0.08398604874401359</v>
-      </c>
-      <c r="Q13">
-        <v>1.244001977703904</v>
-      </c>
-      <c r="R13">
-        <v>1.244001977703904</v>
-      </c>
-      <c r="S13">
-        <v>0.03809348962040719</v>
-      </c>
-      <c r="T13">
-        <v>0.03809348962040719</v>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0.8088005</v>
+      </c>
+      <c r="H20">
+        <v>1.617601</v>
+      </c>
+      <c r="I20">
+        <v>0.4234983676804481</v>
+      </c>
+      <c r="J20">
+        <v>0.3567617626437406</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>6.111548333333334</v>
+      </c>
+      <c r="N20">
+        <v>18.334645</v>
+      </c>
+      <c r="O20">
+        <v>0.3010860211453351</v>
+      </c>
+      <c r="P20">
+        <v>0.3755748624096281</v>
+      </c>
+      <c r="Q20">
+        <v>4.943023347774168</v>
+      </c>
+      <c r="R20">
+        <v>29.65814008664501</v>
+      </c>
+      <c r="S20">
+        <v>0.1275094384864503</v>
+      </c>
+      <c r="T20">
+        <v>0.1339907499179393</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.8088005</v>
+      </c>
+      <c r="H21">
+        <v>1.617601</v>
+      </c>
+      <c r="I21">
+        <v>0.4234983676804481</v>
+      </c>
+      <c r="J21">
+        <v>0.3567617626437406</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>1.6551325</v>
+      </c>
+      <c r="N21">
+        <v>3.310265</v>
+      </c>
+      <c r="O21">
+        <v>0.0815402630746324</v>
+      </c>
+      <c r="P21">
+        <v>0.0678089115941109</v>
+      </c>
+      <c r="Q21">
+        <v>1.33867199356625</v>
+      </c>
+      <c r="R21">
+        <v>5.354687974265</v>
+      </c>
+      <c r="S21">
+        <v>0.03453216831234114</v>
+      </c>
+      <c r="T21">
+        <v>0.02419162682326858</v>
       </c>
     </row>
   </sheetData>
